--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Dermatomyositis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Dermatomyositis_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness</t>
+          <t>Progressive symmetrical proximal muscle weakness</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness is a hallmark symptom of Dermatomyositis, often presenting as difficulty climbing stairs or lifting objects.</t>
+          <t>This is a hallmark symptom of Dermatomyositis, often presenting as difficulty climbing stairs or lifting objects.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of skin involvement</t>
+          <t>Absence of skin rash</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The lack of any skin manifestations such as rashes or lesions significantly reduces the likelihood of Dermatomyositis.</t>
+          <t>Dermatomyositis typically presents with skin manifestations; their absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin rashes, particularly heliotrope rash or Gottron's papules</t>
+          <t>Heliotrope rash</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of characteristic skin rashes is highly specific for Dermatomyositis and often accompanies muscle weakness.</t>
+          <t>A distinctive purplish rash on the eyelids, which is highly specific to Dermatomyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Presence of isolated muscle pain without weakness</t>
+          <t>Asymmetrical muscle weakness</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Isolated muscle pain without accompanying weakness is more indicative of other conditions and less consistent with Dermatomyositis.</t>
+          <t>Dermatomyositis usually causes symmetrical muscle weakness, so asymmetry suggests another condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Symmetrical muscle pain or tenderness</t>
+          <t>Gottron's papules</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle pain or tenderness that is symmetrical is commonly reported in patients with Dermatomyositis, supporting the diagnosis.</t>
+          <t>These are erythematous or violaceous papules over the knuckles, which are characteristic of Dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rapid onset of symptoms over a few days</t>
+          <t>Rapid onset of muscle weakness</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dermatomyositis typically has a more gradual onset; a rapid onset may suggest an alternative diagnosis.</t>
+          <t>Dermatomyositis generally has a more gradual onset of muscle weakness, so rapid onset may indicate another condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fatigue and malaise</t>
+          <t>V-sign or shawl sign rash</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Generalized fatigue and malaise are frequently experienced by patients with Dermatomyositis, contributing to the overall clinical picture.</t>
+          <t>A rash that appears on the chest or back in a V or shawl pattern, which is indicative of Dermatomyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Predominantly distal muscle weakness</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of family history of autoimmune diseases may suggest a lower likelihood of Dermatomyositis, which is often associated with such conditions.</t>
+          <t>Dermatomyositis primarily affects proximal muscles, so distal weakness suggests an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onset of symptoms in adults, particularly in middle-aged women</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dermatomyositis has a higher incidence in middle-aged women, making this demographic detail relevant to the diagnosis.</t>
+          <t>Difficulty swallowing due to esophageal muscle involvement is common in Dermatomyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal muscle strength on examination</t>
+          <t>No improvement with corticosteroids</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal muscle strength during physical examination contradicts the expected findings in Dermatomyositis, where weakness is a key feature.</t>
+          <t>Dermatomyositis often responds to corticosteroids, so lack of improvement may indicate a different condition.</t>
         </is>
       </c>
     </row>
@@ -618,105 +618,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with Dermatomyositis often have a history of other autoimmune conditions, which increases the likelihood of this diagnosis.</t>
+          <t>Autoimmune diseases are often associated with Dermatomyositis, suggesting a predisposition to developing this condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of muscle weakness</t>
+          <t>Long-term use of corticosteroids without improvement</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of muscle weakness is a strong indicator against Dermatomyositis, as it is a hallmark symptom of the disease.</t>
+          <t>Corticosteroids are typically effective in treating Dermatomyositis, so lack of improvement suggests an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of polymyositis</t>
+          <t>Use of statins</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polymyositis is closely related to Dermatomyositis, and a past diagnosis can indicate a higher risk for developing Dermatomyositis.</t>
+          <t>Statins have been implicated in triggering or exacerbating Dermatomyositis in some patients.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No skin manifestations reported</t>
+          <t>History of chronic fatigue syndrome</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dermatomyositis is characterized by specific skin rashes; their absence strongly suggests that the diagnosis is unlikely.</t>
+          <t>Chronic fatigue syndrome can mimic some symptoms of Dermatomyositis but is a distinct condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of immunosuppressive medications</t>
+          <t>History of malignancy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Dermatomyositis may have been treated with immunosuppressive drugs for other autoimmune conditions, which can support the diagnosis.</t>
+          <t>There is a known association between Dermatomyositis and certain malignancies, making a history of cancer a supporting factor.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous autoimmune diagnoses</t>
+          <t>History of fibromyalgia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of any autoimmune conditions in the past decreases the likelihood of Dermatomyositis being present.</t>
+          <t>Fibromyalgia can present with muscle pain and fatigue, but it is not associated with the muscle inflammation seen in Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of autoimmune diseases</t>
+          <t>Previous episodes of muscle weakness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases can suggest a genetic predisposition, which is relevant for Dermatomyositis.</t>
+          <t>Recurrent muscle weakness episodes can be indicative of Dermatomyositis, which is characterized by muscle inflammation.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No response to corticosteroids</t>
+          <t>History of peripheral neuropathy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dermatomyositis typically responds to corticosteroids; lack of response may indicate that the condition is not present.</t>
+          <t>Peripheral neuropathy is not typically associated with Dermatomyositis and suggests a different neurological condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior skin rashes or myopathy</t>
+          <t>History of interstitial lung disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A history of skin rashes or muscle weakness can be indicative of Dermatomyositis, as these are common symptoms.</t>
+          <t>Interstitial lung disease is a common complication of Dermatomyositis, supporting the diagnosis if present in history.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>History of rheumatoid arthritis without muscle involvement</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of a family history of autoimmune diseases may suggest a lower risk for developing Dermatomyositis.</t>
+          <t>Rheumatoid arthritis can cause joint pain and stiffness but does not typically involve the muscle inflammation seen in Dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dermatomyositis has a genetic component, and a family history of autoimmune diseases increases the likelihood of developing it.</t>
+          <t>Autoimmune diseases, including dermatomyositis, can have a genetic component, making a family history of such conditions a risk factor.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No family history of Dermatomyositis or related autoimmune diseases</t>
+          <t>No family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of family history reduces the likelihood of a genetic predisposition to Dermatomyositis.</t>
+          <t>The absence of a family history of autoimmune diseases reduces the likelihood of dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of exposure to certain environmental factors</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exposure to certain environmental triggers, such as UV light or certain drugs, can increase the risk of developing Dermatomyositis.</t>
+          <t>Dermatomyositis is more common in females, which can be considered a risk factor.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of significant environmental exposures</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of known environmental triggers decreases the likelihood of developing Dermatomyositis.</t>
+          <t>Dermatomyositis is less common in males, which decreases the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of other autoimmune conditions in the patient</t>
+          <t>Caucasian ethnicity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with one autoimmune condition are at higher risk for developing others, including Dermatomyositis.</t>
+          <t>Certain ethnic groups, such as Caucasians, have a higher prevalence of dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No other autoimmune conditions present</t>
+          <t>Non-Caucasian ethnicity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of other autoimmune diseases suggests a lower risk for developing Dermatomyositis.</t>
+          <t>Certain ethnic groups have a lower prevalence of dermatomyositis, making the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that may lead to muscle injury</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Activities that cause muscle injury can trigger Dermatomyositis in susceptible individuals.</t>
+          <t>Smoking has been associated with an increased risk of autoimmune diseases, including dermatomyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engagement in low-risk physical activities</t>
+          <t>No history of smoking</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Participation in activities that do not strain muscles reduces the likelihood of triggering Dermatomyositis.</t>
+          <t>The absence of smoking history reduces the risk of autoimmune diseases, including dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of malignancy in the patient or family</t>
+          <t>Occupational exposure to UV light</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dermatomyositis can be associated with underlying malignancies, particularly in adults, making a history of cancer relevant.</t>
+          <t>UV light exposure can exacerbate dermatomyositis symptoms, and certain occupations may increase this risk.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No personal or family history of malignancy</t>
+          <t>No occupational exposure to UV light</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of malignancy history decreases the association with Dermatomyositis, which can be a paraneoplastic syndrome.</t>
+          <t>Lack of UV light exposure reduces the risk of exacerbating or developing dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness</t>
+          <t>Heliotrope rash</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness is a hallmark of Dermatomyositis, often presenting as difficulty climbing stairs or lifting objects.</t>
+          <t>A heliotrope rash, characterized by a violaceous or purplish rash around the eyes, is highly specific to dermatomyositis and is a classic dermatological finding.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal muscle strength</t>
+          <t>Absence of skin rash</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal muscle strength suggests that there is no proximal muscle weakness, which is a key feature of Dermatomyositis.</t>
+          <t>The absence of characteristic skin rashes such as heliotrope rash or Gottron's papules makes dermatomyositis less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Heliotrope rash</t>
+          <t>Gottron's papules</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The heliotrope rash, a violaceous rash on the eyelids, is highly specific for Dermatomyositis and often accompanies muscle weakness.</t>
+          <t>Gottron's papules are erythematous or violaceous papules found over the knuckles and are highly specific for dermatomyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of skin rashes</t>
+          <t>Normal muscle strength</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of characteristic skin rashes such as heliotrope rash or Gottron's papules makes Dermatomyositis less likely.</t>
+          <t>Normal muscle strength, especially in the proximal muscles, argues against the presence of dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gottron's papules</t>
+          <t>Proximal muscle weakness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gottron's papules, erythematous papules over the dorsal surfaces of the joints, are characteristic findings in Dermatomyositis.</t>
+          <t>Symmetrical proximal muscle weakness, particularly in the shoulders and hips, is a hallmark of dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal reflexes</t>
+          <t>No muscle tenderness</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal deep tendon reflexes indicate intact neuromuscular function, which is inconsistent with the muscle involvement seen in Dermatomyositis.</t>
+          <t>The absence of muscle tenderness, which is often present in inflammatory myopathies, suggests dermatomyositis is less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Skin findings on the chest (shawl sign)</t>
+          <t>Shawl sign</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The shawl sign, characterized by erythematous rash over the back and shoulders, is a specific cutaneous manifestation of Dermatomyositis.</t>
+          <t>The shawl sign, a rash over the shoulders and back, is a specific cutaneous manifestation associated with dermatomyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of systemic illness</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of systemic symptoms such as fever, weight loss, or fatigue suggests that an inflammatory myopathy like Dermatomyositis is unlikely.</t>
+          <t>A normal skin examination without any of the characteristic rashes or papules reduces the likelihood of dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Muscle tenderness on examination</t>
+          <t>Mechanic's hands</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle tenderness is often present in Dermatomyositis, indicating inflammation of the muscle tissue.</t>
+          <t>Mechanic's hands, characterized by rough, cracked skin on the sides of the fingers, are often seen in dermatomyositis and are indicative of the disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal laboratory tests for muscle enzymes</t>
+          <t>No evidence of muscle atrophy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal levels of muscle enzymes (e.g., creatine kinase) indicate that there is no muscle damage, which is contrary to what is expected in Dermatomyositis.</t>
+          <t>The absence of muscle atrophy, which can occur in chronic cases of dermatomyositis, suggests the disease is not present.</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elevated CK levels are commonly found in patients with Dermatomyositis due to muscle inflammation and damage.</t>
+          <t>Elevated CK levels are indicative of muscle damage, which is a hallmark of dermatomyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,29 +1081,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal CK levels suggest that there is no significant muscle damage or inflammation, making Dermatomyositis less likely.</t>
+          <t>Normal CK levels suggest the absence of muscle damage, which is uncommon in dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Positive anti-Jo-1 antibodies</t>
+          <t>Positive anti-Mi-2 antibodies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti-Jo-1 antibodies are specifically associated with Dermatomyositis and indicate an autoimmune process affecting muscle tissue.</t>
+          <t>Anti-Mi-2 antibodies are highly specific for dermatomyositis and are rarely found in other conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative anti-Jo-1 antibodies</t>
+          <t>Negative anti-Mi-2 antibodies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of anti-Jo-1 antibodies reduces the likelihood of an autoimmune myopathy such as Dermatomyositis.</t>
+          <t>The absence of anti-Mi-2 antibodies reduces the likelihood of dermatomyositis, as they are specific markers for the disease.</t>
         </is>
       </c>
     </row>
@@ -1115,61 +1115,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Perifascicular atrophy is a histological finding that is characteristic of Dermatomyositis and supports the diagnosis.</t>
+          <t>Perifascicular atrophy on muscle biopsy is a classic finding in dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal electromyography (EMG) results</t>
+          <t>Muscle biopsy without inflammation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal EMG results indicate that there is no myopathic process occurring, which argues against Dermatomyositis.</t>
+          <t>A muscle biopsy that does not show inflammation is inconsistent with dermatomyositis, which typically involves inflammatory changes.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Electromyography (EMG) showing myopathic changes</t>
+          <t>Positive anti-MDA5 antibodies</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EMG findings of myopathic changes are indicative of muscle involvement in Dermatomyositis.</t>
+          <t>Anti-MDA5 antibodies are associated with a specific subset of dermatomyositis, particularly with skin involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of characteristic skin findings</t>
+          <t>Negative anti-MDA5 antibodies</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The lack of skin manifestations such as heliotrope rash or Gottron's papules makes Dermatomyositis unlikely.</t>
+          <t>The absence of anti-MDA5 antibodies suggests a lower likelihood of dermatomyositis, especially the subset associated with these antibodies.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skin biopsy showing interface dermatitis</t>
+          <t>MRI showing muscle edema</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Interface dermatitis on skin biopsy is a hallmark of Dermatomyositis and supports the diagnosis.</t>
+          <t>Muscle edema on MRI is indicative of inflammation, which is consistent with dermatomyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative muscle biopsy for inflammatory changes</t>
+          <t>MRI without muscle edema</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A muscle biopsy that does not show inflammatory changes is strong evidence against the diagnosis of Dermatomyositis.</t>
+          <t>An MRI that does not show muscle edema suggests a lack of inflammation, which is atypical for dermatomyositis.</t>
         </is>
       </c>
     </row>
